--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_20_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_20_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4073237.235122268</v>
+        <v>-4073468.171413639</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960785</v>
+        <v>244259.5951960788</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.69900505979225</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.994663542198473</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="F11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="G11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="H11" t="n">
-        <v>3.399935901678558</v>
+        <v>0.293732700311967</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0219011819134</v>
+        <v>1.021901181913663</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.009815765847634</v>
+        <v>2.009815765847861</v>
       </c>
       <c r="P11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.195257739752606</v>
+        <v>1.195257739752776</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.565613392999467</v>
+        <v>2.56561339299941</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2937327003118324</v>
+        <v>0.293732700311521</v>
       </c>
       <c r="G14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="H14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,22 +1634,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0219011819134</v>
+        <v>1.021901181913677</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.009815765847634</v>
+        <v>2.009815765847883</v>
       </c>
       <c r="P14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.195257739752606</v>
+        <v>1.195257739752762</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.565613392999467</v>
+        <v>2.56561339299941</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.23713020411452</v>
+        <v>10.23713020411446</v>
       </c>
       <c r="F17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="G17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="H17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.21388532043926</v>
+        <v>10.2138853204395</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.590056032781206</v>
+        <v>5.590056032781376</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.21430194723359</v>
+        <v>15.21430194723314</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.283396478235034</v>
+        <v>9.283396478234579</v>
       </c>
       <c r="F20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="G20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="H20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.260151594559773</v>
+        <v>9.260151594559627</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.636322306901718</v>
+        <v>4.636322306901491</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
     </row>
     <row r="21">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.394335948492049</v>
+        <v>8.394335948492337</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.770506660833973</v>
+        <v>3.770506660834201</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.394335948491914</v>
+        <v>8.394335948492198</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.770506660833849</v>
+        <v>3.770506660834087</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.90080838673077</v>
+        <v>13.900808386731</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.969902917732213</v>
+        <v>7.969902917732441</v>
       </c>
       <c r="F29" t="n">
-        <v>38.50228573285467</v>
+        <v>38.50228573284807</v>
       </c>
       <c r="G29" t="n">
-        <v>38.50228573285467</v>
+        <v>38.50228573284807</v>
       </c>
       <c r="H29" t="n">
-        <v>26.47280399217084</v>
+        <v>26.47280399217107</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.946658034056973</v>
+        <v>7.946658034057489</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.322828746398898</v>
+        <v>3.322828746399352</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.74078619760917</v>
+        <v>30.7407861976094</v>
       </c>
     </row>
     <row r="30">
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.158788032783946</v>
+        <v>7.15878803278423</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.534958745125891</v>
+        <v>2.534958745126119</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.11927493222191</v>
+        <v>13.11927493222174</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.188369463223353</v>
+        <v>7.188369463223182</v>
       </c>
       <c r="F35" t="n">
-        <v>51.27038550428628</v>
+        <v>51.27038550428789</v>
       </c>
       <c r="G35" t="n">
-        <v>51.27038550428628</v>
+        <v>51.27038550428789</v>
       </c>
       <c r="H35" t="n">
-        <v>25.69127053766198</v>
+        <v>25.69127053766181</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.165124579548092</v>
+        <v>7.165124579548205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.541295291890037</v>
+        <v>2.541295291890094</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.95925274310031</v>
+        <v>29.95925274310014</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.11927493222197</v>
+        <v>13.1192749322218</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.18836946322341</v>
+        <v>7.188369463223239</v>
       </c>
       <c r="F38" t="n">
-        <v>51.27038550428668</v>
+        <v>51.27038550428848</v>
       </c>
       <c r="G38" t="n">
-        <v>51.27038550428668</v>
+        <v>51.27038550428848</v>
       </c>
       <c r="H38" t="n">
-        <v>25.69127053766204</v>
+        <v>25.69127053766186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.165124579548149</v>
+        <v>7.165124579548262</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.541295291890094</v>
+        <v>2.541295291890151</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.95925274310036</v>
+        <v>29.95925274310019</v>
       </c>
     </row>
     <row r="39">
@@ -3749,10 +3749,10 @@
         <v>7.969902917732327</v>
       </c>
       <c r="F41" t="n">
-        <v>38.5022857328517</v>
+        <v>38.50228573285305</v>
       </c>
       <c r="G41" t="n">
-        <v>38.5022857328517</v>
+        <v>38.50228573285305</v>
       </c>
       <c r="H41" t="n">
         <v>26.47280399217095</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.946658034057066</v>
+        <v>7.94665803405735</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.322828746399001</v>
+        <v>3.322828746399239</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.34848630116591</v>
+        <v>14.34848630116568</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.417580832167346</v>
+        <v>8.417580832167118</v>
       </c>
       <c r="F44" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
       <c r="G44" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
       <c r="H44" t="n">
-        <v>26.92048190660597</v>
+        <v>26.92048190660574</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.77050666083403</v>
+        <v>3.770506660833973</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.867870521390688</v>
+        <v>4.139657549787936</v>
       </c>
       <c r="C11" t="n">
-        <v>10.23380706405246</v>
+        <v>7.505594092449471</v>
       </c>
       <c r="D11" t="n">
-        <v>13.59974360671423</v>
+        <v>10.87153063511101</v>
       </c>
       <c r="E11" t="n">
-        <v>10.57483093782688</v>
+        <v>7.437251946546997</v>
       </c>
       <c r="F11" t="n">
-        <v>7.140552249262685</v>
+        <v>4.002973257983039</v>
       </c>
       <c r="G11" t="n">
-        <v>3.706273560698484</v>
+        <v>0.5686945694190806</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="I11" t="n">
-        <v>3.637931414796057</v>
+        <v>3.637931414795801</v>
       </c>
       <c r="J11" t="n">
-        <v>7.003867957457828</v>
+        <v>7.003867957457336</v>
       </c>
       <c r="K11" t="n">
-        <v>10.3698045001196</v>
+        <v>10.36980450011887</v>
       </c>
       <c r="L11" t="n">
-        <v>6.935525811554596</v>
+        <v>6.935525811554889</v>
       </c>
       <c r="M11" t="n">
-        <v>5.903302395480455</v>
+        <v>5.903302395480482</v>
       </c>
       <c r="N11" t="n">
-        <v>6.943721546153249</v>
+        <v>6.943721546153045</v>
       </c>
       <c r="O11" t="n">
-        <v>4.913604610953619</v>
+        <v>4.913604610953184</v>
       </c>
       <c r="P11" t="n">
-        <v>1.479325922389419</v>
+        <v>1.479325922389595</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14164031474678</v>
+        <v>1.141640314746724</v>
       </c>
       <c r="S11" t="n">
-        <v>4.507576857408493</v>
+        <v>4.507576857408262</v>
       </c>
       <c r="T11" t="n">
-        <v>4.507576857408493</v>
+        <v>4.507576857408262</v>
       </c>
       <c r="U11" t="n">
-        <v>6.867870521390688</v>
+        <v>6.867870521390204</v>
       </c>
       <c r="V11" t="n">
-        <v>10.23380706405246</v>
+        <v>10.23380706405174</v>
       </c>
       <c r="W11" t="n">
-        <v>13.59974360671423</v>
+        <v>13.59974360671327</v>
       </c>
       <c r="X11" t="n">
-        <v>11.00821492691675</v>
+        <v>11.00821492691585</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.573936238352557</v>
+        <v>7.573936238351894</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2719948721342846</v>
+        <v>0.2719948721342655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.139657549787575</v>
+        <v>4.139657549786763</v>
       </c>
       <c r="C14" t="n">
-        <v>7.505594092448957</v>
+        <v>7.505594092447712</v>
       </c>
       <c r="D14" t="n">
-        <v>10.87153063511034</v>
+        <v>10.87153063510866</v>
       </c>
       <c r="E14" t="n">
-        <v>7.437251946546537</v>
+        <v>7.437251946545302</v>
       </c>
       <c r="F14" t="n">
-        <v>7.140552249261858</v>
+        <v>7.140552249260937</v>
       </c>
       <c r="G14" t="n">
-        <v>3.706273560698055</v>
+        <v>3.706273560697577</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="I14" t="n">
-        <v>3.637931414795636</v>
+        <v>3.637931414795117</v>
       </c>
       <c r="J14" t="n">
-        <v>7.003867957457018</v>
+        <v>7.003867957457031</v>
       </c>
       <c r="K14" t="n">
-        <v>10.3698045001184</v>
+        <v>10.36980450011798</v>
       </c>
       <c r="L14" t="n">
-        <v>6.935525811554426</v>
+        <v>6.935525811554621</v>
       </c>
       <c r="M14" t="n">
-        <v>5.903302395480284</v>
+        <v>5.9033023954802</v>
       </c>
       <c r="N14" t="n">
-        <v>6.943721546152854</v>
+        <v>6.943721546152769</v>
       </c>
       <c r="O14" t="n">
-        <v>4.913604610953223</v>
+        <v>4.913604610952934</v>
       </c>
       <c r="P14" t="n">
-        <v>1.47932592238941</v>
+        <v>1.479325922389533</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="R14" t="n">
-        <v>1.14164031474678</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="S14" t="n">
-        <v>3.501933978728573</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="T14" t="n">
-        <v>6.867870521389893</v>
+        <v>3.501933978728005</v>
       </c>
       <c r="U14" t="n">
-        <v>6.867870521389893</v>
+        <v>6.867870521389005</v>
       </c>
       <c r="V14" t="n">
-        <v>10.23380706405128</v>
+        <v>10.23380706404995</v>
       </c>
       <c r="W14" t="n">
-        <v>13.59974360671266</v>
+        <v>13.5997436067109</v>
       </c>
       <c r="X14" t="n">
-        <v>11.00821492691518</v>
+        <v>11.00821492691348</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.573936238351378</v>
+        <v>7.573936238350123</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2719948721342532</v>
+        <v>0.271994872134218</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.61531527507882</v>
+        <v>32.00944436293084</v>
       </c>
       <c r="C17" t="n">
-        <v>44.62167059146077</v>
+        <v>44.62167059146033</v>
       </c>
       <c r="D17" t="n">
-        <v>60.62802590784272</v>
+        <v>60.62802590784249</v>
       </c>
       <c r="E17" t="n">
-        <v>50.28749034813111</v>
+        <v>50.28749034813094</v>
       </c>
       <c r="F17" t="n">
-        <v>33.95614118337042</v>
+        <v>33.95614118337031</v>
       </c>
       <c r="G17" t="n">
-        <v>17.62479201860974</v>
+        <v>17.62479201860967</v>
       </c>
       <c r="H17" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="I17" t="n">
         <v>9.00184799758398</v>
       </c>
       <c r="J17" t="n">
-        <v>12.44945493836278</v>
+        <v>14.1232475439997</v>
       </c>
       <c r="K17" t="n">
-        <v>21.62389194946252</v>
+        <v>14.1232475439997</v>
       </c>
       <c r="L17" t="n">
-        <v>11.30683607023087</v>
+        <v>3.80619166476788</v>
       </c>
       <c r="M17" t="n">
-        <v>13.36274000643583</v>
+        <v>5.862095600972793</v>
       </c>
       <c r="N17" t="n">
-        <v>13.36274000643583</v>
+        <v>5.862095600972793</v>
       </c>
       <c r="O17" t="n">
-        <v>14.4406085045461</v>
+        <v>6.939964099082756</v>
       </c>
       <c r="P17" t="n">
-        <v>8.794087259312612</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.794087259312612</v>
+        <v>3.177723797793249</v>
       </c>
       <c r="R17" t="n">
-        <v>12.73131880822455</v>
+        <v>3.177723797793249</v>
       </c>
       <c r="S17" t="n">
-        <v>28.73767412460635</v>
+        <v>16.12544789607648</v>
       </c>
       <c r="T17" t="n">
-        <v>28.73767412460635</v>
+        <v>32.13180321245829</v>
       </c>
       <c r="U17" t="n">
-        <v>28.73767412460635</v>
+        <v>32.13180321245829</v>
       </c>
       <c r="V17" t="n">
-        <v>44.7440294409883</v>
+        <v>48.13815852884019</v>
       </c>
       <c r="W17" t="n">
-        <v>60.75038475737025</v>
+        <v>64.14451384522209</v>
       </c>
       <c r="X17" t="n">
-        <v>61.2780136046002</v>
+        <v>64.6721426924521</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.94666443983951</v>
+        <v>48.34079352769147</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="C18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="D18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="E18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="F18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="G18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="H18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="I18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="J18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="K18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="L18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="M18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="N18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="O18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="P18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="R18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="S18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="T18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="U18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="V18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="W18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="X18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="C19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="D19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="E19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="F19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="G19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="H19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="I19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="J19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="K19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="L19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="M19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="N19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="O19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="P19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="R19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="S19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="T19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="U19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="V19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="W19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="X19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.293442853849047</v>
+        <v>1.293442853849042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.88315926597869</v>
+        <v>54.84039963916776</v>
       </c>
       <c r="C20" t="n">
-        <v>59.16582133727627</v>
+        <v>59.86690828427601</v>
       </c>
       <c r="D20" t="n">
-        <v>82.41286005825756</v>
+        <v>83.11394700525912</v>
       </c>
       <c r="E20" t="n">
-        <v>73.03569189842425</v>
+        <v>73.73677884542624</v>
       </c>
       <c r="F20" t="n">
-        <v>49.31664412678738</v>
+        <v>50.01773107378782</v>
       </c>
       <c r="G20" t="n">
-        <v>25.59759635515051</v>
+        <v>26.2986833021494</v>
       </c>
       <c r="H20" t="n">
-        <v>1.87854858351364</v>
+        <v>2.579635530510984</v>
       </c>
       <c r="I20" t="n">
-        <v>10.53115011586926</v>
+        <v>11.23223706286692</v>
       </c>
       <c r="J20" t="n">
-        <v>24.19052489284277</v>
+        <v>11.23223706286692</v>
       </c>
       <c r="K20" t="n">
-        <v>34.30915829256304</v>
+        <v>11.23223706286692</v>
       </c>
       <c r="L20" t="n">
-        <v>24.95546981320962</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="M20" t="n">
-        <v>24.95546981320962</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="N20" t="n">
-        <v>24.95546981320962</v>
+        <v>6.561702428868805</v>
       </c>
       <c r="O20" t="n">
-        <v>26.97753469994058</v>
+        <v>6.561702428868805</v>
       </c>
       <c r="P20" t="n">
-        <v>22.29438085458526</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.12285818715032</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="R20" t="n">
-        <v>30.0042861246829</v>
+        <v>6.759976521046724</v>
       </c>
       <c r="S20" t="n">
-        <v>30.0042861246829</v>
+        <v>24.18631301273969</v>
       </c>
       <c r="T20" t="n">
-        <v>30.0042861246829</v>
+        <v>47.4333517337225</v>
       </c>
       <c r="U20" t="n">
-        <v>53.25132484566419</v>
+        <v>47.4333517337225</v>
       </c>
       <c r="V20" t="n">
-        <v>76.49836356664733</v>
+        <v>70.68039045470532</v>
       </c>
       <c r="W20" t="n">
-        <v>76.49836356664733</v>
+        <v>93.92742917568813</v>
       </c>
       <c r="X20" t="n">
-        <v>77.97018880249797</v>
+        <v>93.92742917568813</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.25114103086111</v>
+        <v>70.20838140404972</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="C21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="D21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="E21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="F21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="H21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="I21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="J21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="K21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="L21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="M21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="N21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="O21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="R21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="S21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="T21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="X21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="C22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="D22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="E22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="F22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="G22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="H22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="I22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="J22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="K22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="L22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="M22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="N22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="O22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="S22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="V22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="X22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.87854858351364</v>
+        <v>1.878548583513763</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.75693683887386</v>
+        <v>51.95864995617031</v>
       </c>
       <c r="C23" t="n">
-        <v>99.89675639977872</v>
+        <v>73.0984695170751</v>
       </c>
       <c r="D23" t="n">
-        <v>114.244069520621</v>
+        <v>103.9750489879991</v>
       </c>
       <c r="E23" t="n">
-        <v>105.741462619442</v>
+        <v>95.47244208682007</v>
       </c>
       <c r="F23" t="n">
-        <v>74.23796351636696</v>
+        <v>63.96894298374507</v>
       </c>
       <c r="G23" t="n">
-        <v>42.73446441329196</v>
+        <v>32.46544388067007</v>
       </c>
       <c r="H23" t="n">
-        <v>15.54205844702334</v>
+        <v>5.273037914401466</v>
       </c>
       <c r="I23" t="n">
-        <v>15.54205844702334</v>
+        <v>14.78279693636412</v>
       </c>
       <c r="J23" t="n">
-        <v>15.54205844702334</v>
+        <v>14.78279693636412</v>
       </c>
       <c r="K23" t="n">
-        <v>15.54205844702334</v>
+        <v>14.78279693636412</v>
       </c>
       <c r="L23" t="n">
-        <v>7.062931226324297</v>
+        <v>6.303669715664792</v>
       </c>
       <c r="M23" t="n">
-        <v>7.062931226324297</v>
+        <v>6.303669715664792</v>
       </c>
       <c r="N23" t="n">
-        <v>7.062931226324297</v>
+        <v>6.303669715664792</v>
       </c>
       <c r="O23" t="n">
-        <v>7.062931226324297</v>
+        <v>6.303669715664792</v>
       </c>
       <c r="P23" t="n">
-        <v>3.254338639623313</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.254338639623313</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="R23" t="n">
-        <v>3.254338639623313</v>
+        <v>8.233662556103109</v>
       </c>
       <c r="S23" t="n">
-        <v>34.13091811054711</v>
+        <v>8.233662556103109</v>
       </c>
       <c r="T23" t="n">
-        <v>65.00749758147091</v>
+        <v>39.11024202702691</v>
       </c>
       <c r="U23" t="n">
-        <v>95.88407705239467</v>
+        <v>69.98682149795071</v>
       </c>
       <c r="V23" t="n">
-        <v>95.88407705239467</v>
+        <v>97.95556956547343</v>
       </c>
       <c r="W23" t="n">
-        <v>122.4248737227193</v>
+        <v>97.95556956547343</v>
       </c>
       <c r="X23" t="n">
-        <v>124.753856448177</v>
+        <v>97.95556956547343</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.25035734510197</v>
+        <v>66.45207046239842</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="C24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="D24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="E24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="F24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="G24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="H24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="I24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="J24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="K24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="L24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="M24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="N24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="O24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="P24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="R24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="S24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="T24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="U24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="V24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="W24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="X24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
       <c r="Y24" t="n">
-        <v>124.753856448177</v>
+        <v>2.49507712896354</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="C25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="D25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="F25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="G25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="H25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="I25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="J25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="K25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="L25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="M25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="N25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="O25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="P25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="R25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="S25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="T25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="U25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="V25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="W25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="X25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.49507712896354</v>
+        <v>124.753856448177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.75693683887363</v>
+        <v>78.75693683887394</v>
       </c>
       <c r="C26" t="n">
-        <v>99.89675639977838</v>
+        <v>78.75693683887394</v>
       </c>
       <c r="D26" t="n">
-        <v>101.1970882025602</v>
+        <v>101.1970882025607</v>
       </c>
       <c r="E26" t="n">
-        <v>92.6944813013813</v>
+        <v>92.69448130138178</v>
       </c>
       <c r="F26" t="n">
-        <v>61.19098219830642</v>
+        <v>61.1909821983069</v>
       </c>
       <c r="G26" t="n">
         <v>29.68748309523202</v>
@@ -6221,55 +6221,55 @@
         <v>2.49507712896353</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00483615092631</v>
+        <v>12.00483615092646</v>
       </c>
       <c r="J26" t="n">
-        <v>42.88141562185</v>
+        <v>12.00483615092646</v>
       </c>
       <c r="K26" t="n">
-        <v>53.85720651117745</v>
+        <v>12.00483615092646</v>
       </c>
       <c r="L26" t="n">
-        <v>45.3780792904784</v>
+        <v>3.525708930227271</v>
       </c>
       <c r="M26" t="n">
-        <v>49.23533710491141</v>
+        <v>3.525708930227271</v>
       </c>
       <c r="N26" t="n">
-        <v>55.14469624011149</v>
+        <v>3.525708930227271</v>
       </c>
       <c r="O26" t="n">
-        <v>55.14469624011149</v>
+        <v>6.303669715664629</v>
       </c>
       <c r="P26" t="n">
-        <v>51.33610365341063</v>
+        <v>2.49507712896353</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.33610365341063</v>
+        <v>2.49507712896353</v>
       </c>
       <c r="R26" t="n">
-        <v>57.07468908055044</v>
+        <v>3.254338639622788</v>
       </c>
       <c r="S26" t="n">
-        <v>87.95126855147413</v>
+        <v>34.13091811054647</v>
       </c>
       <c r="T26" t="n">
-        <v>118.8278480223967</v>
+        <v>34.13091811054647</v>
       </c>
       <c r="U26" t="n">
-        <v>118.8278480223967</v>
+        <v>65.00749758147016</v>
       </c>
       <c r="V26" t="n">
-        <v>124.7538564481765</v>
+        <v>95.88407705239385</v>
       </c>
       <c r="W26" t="n">
-        <v>124.7538564481765</v>
+        <v>122.4248737227187</v>
       </c>
       <c r="X26" t="n">
         <v>124.7538564481765</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.25035734510163</v>
+        <v>93.25035734510196</v>
       </c>
     </row>
     <row r="27">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.81838943461716</v>
+        <v>74.82462576416812</v>
       </c>
       <c r="C29" t="n">
-        <v>78.40141013081275</v>
+        <v>96.40764646036327</v>
       </c>
       <c r="D29" t="n">
-        <v>115.6531913188429</v>
+        <v>115.6531913188295</v>
       </c>
       <c r="E29" t="n">
-        <v>107.6027843312346</v>
+        <v>107.602784331221</v>
       </c>
       <c r="F29" t="n">
-        <v>68.7115866212804</v>
+        <v>68.71158662127344</v>
       </c>
       <c r="G29" t="n">
-        <v>29.82038891132619</v>
+        <v>29.8203889113259</v>
       </c>
       <c r="H29" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="I29" t="n">
-        <v>13.03314301588179</v>
+        <v>13.03314301588089</v>
       </c>
       <c r="J29" t="n">
-        <v>51.15040589140774</v>
+        <v>13.03314301588089</v>
       </c>
       <c r="K29" t="n">
-        <v>51.15040589140774</v>
+        <v>13.03314301588089</v>
       </c>
       <c r="L29" t="n">
-        <v>43.12347858427949</v>
+        <v>5.006215708752118</v>
       </c>
       <c r="M29" t="n">
-        <v>47.42393753400314</v>
+        <v>5.006215708752118</v>
       </c>
       <c r="N29" t="n">
-        <v>53.77649780449384</v>
+        <v>11.3587759792423</v>
       </c>
       <c r="O29" t="n">
-        <v>53.77649780449384</v>
+        <v>11.3587759792423</v>
       </c>
       <c r="P29" t="n">
-        <v>50.42010513136364</v>
+        <v>8.002383306111605</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.54894108882634</v>
+        <v>8.002383306111605</v>
       </c>
       <c r="R29" t="n">
-        <v>60.73072765125677</v>
+        <v>8.002383306111605</v>
       </c>
       <c r="S29" t="n">
-        <v>60.73072765125677</v>
+        <v>46.11964618163119</v>
       </c>
       <c r="T29" t="n">
-        <v>60.73072765125677</v>
+        <v>84.2369090571499</v>
       </c>
       <c r="U29" t="n">
-        <v>60.73072765125677</v>
+        <v>84.2369090571499</v>
       </c>
       <c r="V29" t="n">
-        <v>96.41096414043717</v>
+        <v>119.9171455463301</v>
       </c>
       <c r="W29" t="n">
-        <v>99.13872535603169</v>
+        <v>119.9171455463301</v>
       </c>
       <c r="X29" t="n">
-        <v>101.9109092167801</v>
+        <v>119.9171455463301</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.85961002727451</v>
+        <v>88.86584635682568</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="C30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="D30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="E30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="F30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="G30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="H30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="I30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="J30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="K30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="L30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="M30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="N30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="O30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="P30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="R30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="S30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="T30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="U30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="V30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="W30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="X30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="C31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="D31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="E31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="F31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="G31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="H31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="I31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="J31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="K31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="L31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="M31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="N31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="O31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="P31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="R31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="S31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="T31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="U31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="V31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="W31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="X31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.080182858628373</v>
+        <v>3.080182858627845</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.0627676506124</v>
+        <v>125.9626271654616</v>
       </c>
       <c r="C32" t="n">
-        <v>103.0627676506124</v>
+        <v>148.3256391629173</v>
       </c>
       <c r="D32" t="n">
-        <v>141.0945401399028</v>
+        <v>148.3256391629173</v>
       </c>
       <c r="E32" t="n">
-        <v>133.8399614364087</v>
+        <v>141.0710604594232</v>
       </c>
       <c r="F32" t="n">
-        <v>81.94712589012886</v>
+        <v>89.17822491314334</v>
       </c>
       <c r="G32" t="n">
-        <v>30.05429034384903</v>
+        <v>37.28538936686352</v>
       </c>
       <c r="H32" t="n">
+        <v>11.34101159827974</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.34101159827974</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.34101159827974</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.34101159827974</v>
+      </c>
+      <c r="L32" t="n">
         <v>4.109912575265362</v>
       </c>
-      <c r="I32" t="n">
-        <v>14.84286403377906</v>
-      </c>
-      <c r="J32" t="n">
-        <v>65.70303215268791</v>
-      </c>
-      <c r="K32" t="n">
-        <v>77.90201547856626</v>
-      </c>
-      <c r="L32" t="n">
-        <v>70.67091645555203</v>
-      </c>
       <c r="M32" t="n">
-        <v>70.67091645555203</v>
+        <v>4.109912575265362</v>
       </c>
       <c r="N32" t="n">
-        <v>77.80346802730304</v>
+        <v>11.24246414701607</v>
       </c>
       <c r="O32" t="n">
-        <v>81.90588284019208</v>
+        <v>15.34487895990475</v>
       </c>
       <c r="P32" t="n">
-        <v>79.3453184511759</v>
+        <v>12.78431457088847</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.25414570989901</v>
+        <v>17.69314182961131</v>
       </c>
       <c r="R32" t="n">
-        <v>91.21592357358969</v>
+        <v>17.69314182961131</v>
       </c>
       <c r="S32" t="n">
-        <v>115.2474665956613</v>
+        <v>68.55330994852017</v>
       </c>
       <c r="T32" t="n">
-        <v>115.2474665956613</v>
+        <v>119.413478067429</v>
       </c>
       <c r="U32" t="n">
-        <v>115.2474665956613</v>
+        <v>141.6995012725179</v>
       </c>
       <c r="V32" t="n">
-        <v>115.2474665956613</v>
+        <v>141.6995012725179</v>
       </c>
       <c r="W32" t="n">
-        <v>143.0114557025369</v>
+        <v>169.4634903793949</v>
       </c>
       <c r="X32" t="n">
-        <v>146.5636308645457</v>
+        <v>169.4634903793949</v>
       </c>
       <c r="Y32" t="n">
-        <v>116.3081599591556</v>
+        <v>139.2080194740049</v>
       </c>
     </row>
     <row r="33">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.8899247892902</v>
+        <v>80.5076866651392</v>
       </c>
       <c r="C35" t="n">
-        <v>140.8899247892902</v>
+        <v>102.8644254812992</v>
       </c>
       <c r="D35" t="n">
-        <v>140.8899247892902</v>
+        <v>140.8899247892933</v>
       </c>
       <c r="E35" t="n">
-        <v>133.6289455335091</v>
+        <v>133.6289455335123</v>
       </c>
       <c r="F35" t="n">
-        <v>81.84067734736135</v>
+        <v>81.84067734736294</v>
       </c>
       <c r="G35" t="n">
-        <v>30.05240916121359</v>
+        <v>30.05240916121355</v>
       </c>
       <c r="H35" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="I35" t="n">
-        <v>14.82830911756006</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="J35" t="n">
-        <v>65.58599076680335</v>
+        <v>54.85931248958804</v>
       </c>
       <c r="K35" t="n">
-        <v>65.58599076680335</v>
+        <v>54.85931248958804</v>
       </c>
       <c r="L35" t="n">
-        <v>58.34849119150225</v>
+        <v>47.62181291428675</v>
       </c>
       <c r="M35" t="n">
-        <v>58.34849119150225</v>
+        <v>47.62181291428675</v>
       </c>
       <c r="N35" t="n">
-        <v>65.47476958195669</v>
+        <v>54.74809130474108</v>
       </c>
       <c r="O35" t="n">
-        <v>65.47476958195669</v>
+        <v>54.74809130474108</v>
       </c>
       <c r="P35" t="n">
-        <v>62.90780464065362</v>
+        <v>52.18112636343795</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.90780464065362</v>
+        <v>52.18112636343795</v>
       </c>
       <c r="R35" t="n">
-        <v>62.90780464065362</v>
+        <v>59.13663104583242</v>
       </c>
       <c r="S35" t="n">
-        <v>69.434236923832</v>
+        <v>59.13663104583242</v>
       </c>
       <c r="T35" t="n">
-        <v>120.1919185730754</v>
+        <v>59.13663104583242</v>
       </c>
       <c r="U35" t="n">
-        <v>120.1919185730754</v>
+        <v>109.8943126950774</v>
       </c>
       <c r="V35" t="n">
-        <v>156.6458731822196</v>
+        <v>124.0213509836461</v>
       </c>
       <c r="W35" t="n">
-        <v>184.4035891077975</v>
+        <v>124.0213509836461</v>
       </c>
       <c r="X35" t="n">
-        <v>184.4035891077975</v>
+        <v>124.0213509836461</v>
       </c>
       <c r="Y35" t="n">
-        <v>154.1417176501205</v>
+        <v>93.75947952596925</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="C36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="D36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="E36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="F36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="G36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="H36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="I36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="J36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="K36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="L36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="M36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="N36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="O36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="P36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="R36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="S36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="T36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="U36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="V36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="W36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="X36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="C37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="D37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="E37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="F37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="G37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="H37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="I37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="J37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="K37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="L37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="M37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="N37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="O37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="P37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="R37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="S37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="T37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="U37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="V37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="W37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="X37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.101630840342903</v>
+        <v>4.101630840343031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.8644254812974</v>
+        <v>80.50768666514134</v>
       </c>
       <c r="C38" t="n">
-        <v>102.8644254812974</v>
+        <v>102.8644254813007</v>
       </c>
       <c r="D38" t="n">
-        <v>140.8899247892912</v>
+        <v>140.8899247892947</v>
       </c>
       <c r="E38" t="n">
-        <v>133.62894553351</v>
+        <v>133.6289455335136</v>
       </c>
       <c r="F38" t="n">
-        <v>81.84067734736182</v>
+        <v>81.84067734736367</v>
       </c>
       <c r="G38" t="n">
-        <v>30.05240916121368</v>
+        <v>30.05240916121365</v>
       </c>
       <c r="H38" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="I38" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="J38" t="n">
-        <v>47.54091262746767</v>
+        <v>54.85931248958867</v>
       </c>
       <c r="K38" t="n">
-        <v>47.54091262746767</v>
+        <v>67.05202263417034</v>
       </c>
       <c r="L38" t="n">
-        <v>40.3034130521665</v>
+        <v>59.81452305886911</v>
       </c>
       <c r="M38" t="n">
-        <v>40.3034130521665</v>
+        <v>64.88870012855615</v>
       </c>
       <c r="N38" t="n">
-        <v>47.42969144262089</v>
+        <v>64.88870012855615</v>
       </c>
       <c r="O38" t="n">
-        <v>47.42969144262089</v>
+        <v>64.88870012855615</v>
       </c>
       <c r="P38" t="n">
-        <v>44.86272650131776</v>
+        <v>62.32173518725297</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.86272650131776</v>
+        <v>67.22428926467946</v>
       </c>
       <c r="R38" t="n">
-        <v>44.86272650131776</v>
+        <v>67.22428926467946</v>
       </c>
       <c r="S38" t="n">
-        <v>95.62040815056093</v>
+        <v>67.22428926467946</v>
       </c>
       <c r="T38" t="n">
-        <v>146.3780897998047</v>
+        <v>67.22428926467946</v>
       </c>
       <c r="U38" t="n">
-        <v>146.3780897998047</v>
+        <v>67.22428926467946</v>
       </c>
       <c r="V38" t="n">
-        <v>146.3780897998047</v>
+        <v>103.6782438738237</v>
       </c>
       <c r="W38" t="n">
-        <v>146.3780897998047</v>
+        <v>120.4754490029353</v>
       </c>
       <c r="X38" t="n">
-        <v>146.3780897998047</v>
+        <v>124.0213509836476</v>
       </c>
       <c r="Y38" t="n">
-        <v>116.1162183421276</v>
+        <v>93.75947952597144</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="C39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="D39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="E39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="F39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="G39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="H39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="I39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="J39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="K39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="L39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="M39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="N39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="O39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="P39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="R39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="S39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="T39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="U39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="V39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="W39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="X39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="C40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="D40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="E40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="F40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="G40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="H40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="I40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="J40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="K40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="L40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="M40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="N40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="O40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="P40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="R40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="S40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="T40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="U40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="V40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="W40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="X40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.101630840342934</v>
+        <v>4.101630840343079</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.81032941680348</v>
+        <v>78.40141013080969</v>
       </c>
       <c r="C41" t="n">
-        <v>92.81032941680348</v>
+        <v>78.40141013080969</v>
       </c>
       <c r="D41" t="n">
-        <v>115.6531913188369</v>
+        <v>115.6531913188397</v>
       </c>
       <c r="E41" t="n">
-        <v>107.6027843312285</v>
+        <v>107.6027843312313</v>
       </c>
       <c r="F41" t="n">
-        <v>68.71158662127729</v>
+        <v>68.71158662127876</v>
       </c>
       <c r="G41" t="n">
-        <v>29.82038891132607</v>
+        <v>29.82038891132618</v>
       </c>
       <c r="H41" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="I41" t="n">
-        <v>13.03314301588151</v>
+        <v>13.03314301588149</v>
       </c>
       <c r="J41" t="n">
-        <v>51.1504058914047</v>
+        <v>51.15040589140601</v>
       </c>
       <c r="K41" t="n">
-        <v>62.56939791602265</v>
+        <v>62.5693979160237</v>
       </c>
       <c r="L41" t="n">
-        <v>54.54247060889425</v>
+        <v>54.54247060889481</v>
       </c>
       <c r="M41" t="n">
-        <v>58.84292955861754</v>
+        <v>54.54247060889481</v>
       </c>
       <c r="N41" t="n">
-        <v>58.84292955861754</v>
+        <v>60.8950308793851</v>
       </c>
       <c r="O41" t="n">
-        <v>58.84292955861754</v>
+        <v>60.8950308793851</v>
       </c>
       <c r="P41" t="n">
-        <v>55.48653688548724</v>
+        <v>57.53863820625456</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.48653688548724</v>
+        <v>61.66747416371706</v>
       </c>
       <c r="R41" t="n">
-        <v>61.66832344791884</v>
+        <v>61.66747416371706</v>
       </c>
       <c r="S41" t="n">
-        <v>99.78558632344203</v>
+        <v>87.81369342379114</v>
       </c>
       <c r="T41" t="n">
-        <v>137.9028491989652</v>
+        <v>87.81369342379114</v>
       </c>
       <c r="U41" t="n">
-        <v>137.9028491989652</v>
+        <v>87.81369342379114</v>
       </c>
       <c r="V41" t="n">
-        <v>137.9028491989652</v>
+        <v>123.4939299129714</v>
       </c>
       <c r="W41" t="n">
-        <v>137.9028491989652</v>
+        <v>123.4939299129714</v>
       </c>
       <c r="X41" t="n">
-        <v>137.9028491989652</v>
+        <v>123.4939299129714</v>
       </c>
       <c r="Y41" t="n">
-        <v>106.8515500094609</v>
+        <v>92.44263072346715</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="C42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="D42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="E42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="F42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="G42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="H42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="I42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="J42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="K42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="L42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="M42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="N42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="O42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="P42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="R42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="S42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="T42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="U42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="V42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="W42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="X42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="C43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="D43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="E43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="F43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="G43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="H43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="I43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="J43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="K43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="L43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="M43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="N43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="O43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="P43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="R43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="S43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="T43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="U43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="V43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="W43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="X43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.080182858628136</v>
+        <v>3.080182858628244</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.32050873163755</v>
+        <v>78.75693683887332</v>
       </c>
       <c r="C44" t="n">
-        <v>70.32050873163755</v>
+        <v>99.89675639977813</v>
       </c>
       <c r="D44" t="n">
-        <v>101.1970882025614</v>
+        <v>101.1970882025605</v>
       </c>
       <c r="E44" t="n">
-        <v>92.69448130138231</v>
+        <v>92.69448130138161</v>
       </c>
       <c r="F44" t="n">
-        <v>61.19098219830725</v>
+        <v>61.19098219830679</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6874830952322</v>
+        <v>29.68748309523196</v>
       </c>
       <c r="H44" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00483615092617</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="J44" t="n">
-        <v>42.88141562185017</v>
+        <v>33.37165659988716</v>
       </c>
       <c r="K44" t="n">
-        <v>53.85720651117743</v>
+        <v>33.37165659988716</v>
       </c>
       <c r="L44" t="n">
-        <v>45.37807929047835</v>
+        <v>24.89252937918811</v>
       </c>
       <c r="M44" t="n">
-        <v>49.2353371049112</v>
+        <v>24.89252937918811</v>
       </c>
       <c r="N44" t="n">
-        <v>55.14469624011112</v>
+        <v>24.89252937918811</v>
       </c>
       <c r="O44" t="n">
-        <v>58.02391861644901</v>
+        <v>27.77175175552607</v>
       </c>
       <c r="P44" t="n">
-        <v>54.21532602974803</v>
+        <v>23.96315916882509</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.21532602974803</v>
+        <v>23.96315916882509</v>
       </c>
       <c r="R44" t="n">
-        <v>54.21532602974803</v>
+        <v>29.70174459596444</v>
       </c>
       <c r="S44" t="n">
-        <v>56.57106947423608</v>
+        <v>29.70174459596444</v>
       </c>
       <c r="T44" t="n">
-        <v>56.57106947423608</v>
+        <v>36.45990083600424</v>
       </c>
       <c r="U44" t="n">
-        <v>87.44764894515994</v>
+        <v>67.33648030692787</v>
       </c>
       <c r="V44" t="n">
-        <v>87.44764894515994</v>
+        <v>98.21305977785153</v>
       </c>
       <c r="W44" t="n">
-        <v>113.9884456154845</v>
+        <v>124.7538564481763</v>
       </c>
       <c r="X44" t="n">
-        <v>116.3174283409421</v>
+        <v>124.7538564481763</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.81392923786572</v>
+        <v>93.25035734510128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="C45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="D45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="E45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="F45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="G45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="H45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="I45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="J45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="K45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="L45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="M45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="N45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="O45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="P45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="R45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="S45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="T45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="U45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="V45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="W45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="X45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="C46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="D46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="E46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="F46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="G46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="H46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="I46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="J46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="K46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="L46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="M46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="N46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="O46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="P46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="R46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="S46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="T46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="U46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="V46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="W46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="X46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.495077128963544</v>
+        <v>2.495077128963526</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.56760243786571</v>
+        <v>15.86667159597958</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10.34103848646092</v>
+        <v>9.935766126981022</v>
       </c>
       <c r="F11" t="n">
-        <v>54.12764040133865</v>
+        <v>54.12764040133884</v>
       </c>
       <c r="G11" t="n">
-        <v>84.00323893242708</v>
+        <v>84.00323893242727</v>
       </c>
       <c r="H11" t="n">
-        <v>28.43866720141947</v>
+        <v>31.544870402786</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.91252124330558</v>
+        <v>9.912521243306045</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.288691955647525</v>
+        <v>5.288691955647934</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.70664940685779</v>
+        <v>32.70664940685798</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.86667159597979</v>
+        <v>15.86667159598018</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.935766126981234</v>
+        <v>9.935766126981616</v>
       </c>
       <c r="F14" t="n">
-        <v>57.23384360270538</v>
+        <v>57.23384360270563</v>
       </c>
       <c r="G14" t="n">
-        <v>84.00323893242748</v>
+        <v>84.00323893242786</v>
       </c>
       <c r="H14" t="n">
-        <v>28.43866720141986</v>
+        <v>28.43866720142024</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.912521243305973</v>
+        <v>9.912521243306639</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.288691955647909</v>
+        <v>5.288691955648556</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.70664940685819</v>
+        <v>32.70664940685857</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>29.99341345867235</v>
+        <v>29.99341345867036</v>
       </c>
       <c r="G20" t="n">
-        <v>59.86901198976078</v>
+        <v>59.86901198975879</v>
       </c>
       <c r="H20" t="n">
-        <v>4.304440258753161</v>
+        <v>4.304440258751171</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.57242246419149</v>
+        <v>8.572422464189501</v>
       </c>
     </row>
     <row r="21">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>13.65949145923536</v>
+        <v>13.65949145924219</v>
       </c>
       <c r="G29" t="n">
-        <v>43.53508999032379</v>
+        <v>43.53508999033062</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1098582332948865</v>
+        <v>0.1098582332931102</v>
       </c>
       <c r="G35" t="n">
-        <v>29.98545676438331</v>
+        <v>29.98545676438154</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1098582332945455</v>
+        <v>0.1098582332925702</v>
       </c>
       <c r="G38" t="n">
-        <v>29.98545676438297</v>
+        <v>29.985456764381</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>13.65949145923844</v>
+        <v>13.65949145923709</v>
       </c>
       <c r="G41" t="n">
-        <v>43.53508999032687</v>
+        <v>43.53508999032552</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1585476.406015222</v>
+        <v>1585476.406015223</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1591276.979863313</v>
+        <v>1591276.979863311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1594728.342438624</v>
+        <v>1594728.342438625</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1594728.342438624</v>
+        <v>1594728.342438625</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149548.6858035383</v>
+      </c>
+      <c r="C2" t="n">
         <v>149548.6858035382</v>
       </c>
-      <c r="C2" t="n">
-        <v>149548.6858035383</v>
-      </c>
       <c r="D2" t="n">
-        <v>149548.6858035383</v>
+        <v>149548.6858035382</v>
       </c>
       <c r="E2" t="n">
-        <v>146959.0907269133</v>
+        <v>146959.0907269132</v>
       </c>
       <c r="F2" t="n">
         <v>146959.0907269132</v>
@@ -26329,7 +26329,7 @@
         <v>148243.5546205692</v>
       </c>
       <c r="H2" t="n">
-        <v>148638.4130639269</v>
+        <v>148638.4130639271</v>
       </c>
       <c r="I2" t="n">
         <v>148996.8722532838</v>
@@ -26338,13 +26338,13 @@
         <v>148996.8722532838</v>
       </c>
       <c r="K2" t="n">
-        <v>149182.2168621854</v>
+        <v>149182.2168621853</v>
       </c>
       <c r="L2" t="n">
         <v>149508.405518232</v>
       </c>
       <c r="M2" t="n">
-        <v>149505.7821036209</v>
+        <v>149505.782103621</v>
       </c>
       <c r="N2" t="n">
         <v>149505.7821036209</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311275.4038734679</v>
+        <v>311275.4038734675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5978.402085489641</v>
+        <v>5978.402085489746</v>
       </c>
       <c r="H3" t="n">
-        <v>2736.321878392019</v>
+        <v>2736.321878392767</v>
       </c>
       <c r="I3" t="n">
-        <v>2742.00110853648</v>
+        <v>2742.001108535708</v>
       </c>
       <c r="J3" t="n">
-        <v>271122.4207743691</v>
+        <v>271122.4207743692</v>
       </c>
       <c r="K3" t="n">
-        <v>2240.485974452736</v>
+        <v>2240.485974450855</v>
       </c>
       <c r="L3" t="n">
-        <v>6366.845007071457</v>
+        <v>6366.84500707331</v>
       </c>
       <c r="M3" t="n">
-        <v>1579.39735136397</v>
+        <v>1579.397351364765</v>
       </c>
       <c r="N3" t="n">
-        <v>692.6525168541502</v>
+        <v>692.6525168537864</v>
       </c>
       <c r="O3" t="n">
-        <v>270497.194010762</v>
+        <v>270497.1940107619</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>547206.7762123297</v>
       </c>
       <c r="H4" t="n">
-        <v>548735.8248836908</v>
+        <v>548735.8248836913</v>
       </c>
       <c r="I4" t="n">
         <v>550123.9211912244</v>
@@ -26442,19 +26442,19 @@
         <v>550123.9211912244</v>
       </c>
       <c r="K4" t="n">
-        <v>550841.649108032</v>
+        <v>550841.6491080313</v>
       </c>
       <c r="L4" t="n">
         <v>552104.7810975616</v>
       </c>
       <c r="M4" t="n">
-        <v>552094.6221945598</v>
+        <v>552094.62219456</v>
       </c>
       <c r="N4" t="n">
-        <v>552094.6221945598</v>
+        <v>552094.62219456</v>
       </c>
       <c r="O4" t="n">
-        <v>550841.6491080315</v>
+        <v>550841.6491080318</v>
       </c>
       <c r="P4" t="n">
         <v>550123.9211912244</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29759.94321807878</v>
+        <v>29759.94321807876</v>
       </c>
       <c r="F5" t="n">
-        <v>29759.94321807876</v>
+        <v>29759.94321807872</v>
       </c>
       <c r="G5" t="n">
-        <v>30796.73751889966</v>
+        <v>30796.73751889965</v>
       </c>
       <c r="H5" t="n">
-        <v>31321.59731404571</v>
+        <v>31321.59731404583</v>
       </c>
       <c r="I5" t="n">
-        <v>31862.94726413691</v>
+        <v>31862.9472641369</v>
       </c>
       <c r="J5" t="n">
-        <v>31862.94726413691</v>
+        <v>31862.9472641369</v>
       </c>
       <c r="K5" t="n">
-        <v>32345.26345327082</v>
+        <v>32345.26345327039</v>
       </c>
       <c r="L5" t="n">
         <v>33194.09348105195</v>
       </c>
       <c r="M5" t="n">
-        <v>33187.26665536097</v>
+        <v>33187.26665536107</v>
       </c>
       <c r="N5" t="n">
-        <v>33187.26665536099</v>
+        <v>33187.26665536111</v>
       </c>
       <c r="O5" t="n">
-        <v>32345.26345327063</v>
+        <v>32345.26345327071</v>
       </c>
       <c r="P5" t="n">
-        <v>31862.94726413691</v>
+        <v>31862.9472641369</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453128.6878707979</v>
+        <v>-453133.961776817</v>
       </c>
       <c r="C6" t="n">
-        <v>-453128.6878707978</v>
+        <v>-453133.9617768171</v>
       </c>
       <c r="D6" t="n">
-        <v>-453128.6878707978</v>
+        <v>-453133.9617768171</v>
       </c>
       <c r="E6" t="n">
-        <v>-736316.1393116335</v>
+        <v>-736364.5731355962</v>
       </c>
       <c r="F6" t="n">
-        <v>-425040.7354381655</v>
+        <v>-425089.1692621283</v>
       </c>
       <c r="G6" t="n">
-        <v>-435738.3611961498</v>
+        <v>-435765.387288552</v>
       </c>
       <c r="H6" t="n">
-        <v>-434155.3310122017</v>
+        <v>-434175.7761305489</v>
       </c>
       <c r="I6" t="n">
-        <v>-435731.997310614</v>
+        <v>-435746.4681091367</v>
       </c>
       <c r="J6" t="n">
-        <v>-704112.4169764465</v>
+        <v>-704126.8877749701</v>
       </c>
       <c r="K6" t="n">
-        <v>-436245.1816735702</v>
+        <v>-436256.5633952757</v>
       </c>
       <c r="L6" t="n">
-        <v>-442157.314067453</v>
+        <v>-442163.2593115626</v>
       </c>
       <c r="M6" t="n">
-        <v>-437355.5040976639</v>
+        <v>-437361.4930653494</v>
       </c>
       <c r="N6" t="n">
-        <v>-436468.759263154</v>
+        <v>-436474.7482308385</v>
       </c>
       <c r="O6" t="n">
-        <v>-704501.8897098788</v>
+        <v>-704513.2714315873</v>
       </c>
       <c r="P6" t="n">
-        <v>-432989.9962020775</v>
+        <v>-433004.4670006011</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="F2" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="G2" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="H2" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="I2" t="n">
         <v>343.8211471644534</v>
@@ -26710,22 +26710,22 @@
         <v>343.8211471644535</v>
       </c>
       <c r="K2" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="L2" t="n">
         <v>345.0566950801614</v>
       </c>
       <c r="M2" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="N2" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="O2" t="n">
         <v>344.2688250788883</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="F3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="G3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844848</v>
       </c>
       <c r="H3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="I3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="J3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="K3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="L3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="M3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="N3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="O3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="P3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844859</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="F4" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="G4" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="H4" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="I4" t="n">
         <v>31.18846411204424</v>
@@ -26814,22 +26814,22 @@
         <v>31.18846411204413</v>
       </c>
       <c r="K4" t="n">
-        <v>38.50228573285467</v>
+        <v>38.50228573284807</v>
       </c>
       <c r="L4" t="n">
         <v>51.37390719081702</v>
       </c>
       <c r="M4" t="n">
-        <v>51.27038550428628</v>
+        <v>51.27038550428789</v>
       </c>
       <c r="N4" t="n">
-        <v>51.27038550428668</v>
+        <v>51.27038550428848</v>
       </c>
       <c r="O4" t="n">
-        <v>38.5022857328517</v>
+        <v>38.50228573285305</v>
       </c>
       <c r="P4" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>3.098571824544877</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9537337258794878</v>
+        <v>0.9537337258798857</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8658156460677446</v>
+        <v>0.8658156460672899</v>
       </c>
       <c r="J2" t="n">
         <v>338.9030259679614</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4476779144349621</v>
+        <v>0.4476779144347347</v>
       </c>
       <c r="L2" t="n">
-        <v>3.886441825817883</v>
+        <v>3.88644182581811</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9473971791153417</v>
+        <v>0.9473971791159101</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8658156460676878</v>
+        <v>0.865815646067233</v>
       </c>
       <c r="O2" t="n">
-        <v>338.1214925134524</v>
+        <v>338.1214925134523</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.71507454844891</v>
+        <v>48.71507454844846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-5.928590951498336e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>12.76809977143492</v>
+        <v>12.7680997714353</v>
       </c>
       <c r="H4" t="n">
-        <v>7.313821620807417</v>
+        <v>7.313821620809009</v>
       </c>
       <c r="I4" t="n">
-        <v>7.706606818123745</v>
+        <v>7.706606818122211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.313821620810536</v>
+        <v>7.313821620803935</v>
       </c>
       <c r="L4" t="n">
-        <v>12.87162145796236</v>
+        <v>12.87162145796896</v>
       </c>
       <c r="M4" t="n">
-        <v>3.296414215147817</v>
+        <v>3.296414215149184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>3.098571824544877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9537337258794878</v>
+        <v>0.9537337258798857</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8658156460677446</v>
+        <v>0.8658156460672899</v>
       </c>
       <c r="O2" t="n">
         <v>338.9030259679614</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4476779144349621</v>
+        <v>0.4476779144347347</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.76809977143492</v>
+        <v>12.7680997714353</v>
       </c>
       <c r="P4" t="n">
-        <v>7.313821620807417</v>
+        <v>7.313821620809009</v>
       </c>
     </row>
   </sheetData>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="C11" t="n">
-        <v>325.867729974309</v>
+        <v>325.8677299743088</v>
       </c>
       <c r="D11" t="n">
-        <v>310.0406991744759</v>
+        <v>310.0406991744757</v>
       </c>
       <c r="E11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="F11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="G11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="H11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="I11" t="n">
-        <v>337.6152658722302</v>
+        <v>337.6152658722301</v>
       </c>
       <c r="J11" t="n">
         <v>280.9778983617391</v>
@@ -28117,46 +28117,46 @@
         <v>336.1344256021649</v>
       </c>
       <c r="L11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="M11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="N11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="O11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="P11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="R11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="S11" t="n">
-        <v>286.8352595479471</v>
+        <v>286.8352595479469</v>
       </c>
       <c r="T11" t="n">
         <v>225.5068713646012</v>
       </c>
       <c r="U11" t="n">
-        <v>250.4113540446082</v>
+        <v>250.4113540446079</v>
       </c>
       <c r="V11" t="n">
-        <v>311.6281180622029</v>
+        <v>311.6281180622027</v>
       </c>
       <c r="W11" t="n">
-        <v>320.4121975405515</v>
+        <v>320.4121975405512</v>
       </c>
       <c r="X11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
     </row>
     <row r="12">
@@ -28190,28 +28190,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L12" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M12" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O12" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R12" t="n">
         <v>230.2234336083486</v>
@@ -28272,25 +28272,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L13" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R13" t="n">
         <v>270.8995699845275</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="C14" t="n">
-        <v>325.8677299743086</v>
+        <v>325.8677299743082</v>
       </c>
       <c r="D14" t="n">
-        <v>310.0406991744756</v>
+        <v>310.0406991744752</v>
       </c>
       <c r="E14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="F14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="G14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="H14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="I14" t="n">
-        <v>337.6152658722298</v>
+        <v>337.6152658722295</v>
       </c>
       <c r="J14" t="n">
-        <v>280.9778983617388</v>
+        <v>280.9778983617394</v>
       </c>
       <c r="K14" t="n">
-        <v>336.1344256021645</v>
+        <v>336.1344256021644</v>
       </c>
       <c r="L14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="M14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="N14" t="n">
-        <v>338.903025967961</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="O14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="P14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="R14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S14" t="n">
-        <v>285.8194586603915</v>
+        <v>283.4353236462686</v>
       </c>
       <c r="T14" t="n">
-        <v>228.9068072662794</v>
+        <v>228.7694361187364</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0272190304848</v>
+        <v>251.4271549321625</v>
       </c>
       <c r="V14" t="n">
-        <v>311.6281180622026</v>
+        <v>311.6281180622021</v>
       </c>
       <c r="W14" t="n">
-        <v>320.4121975405511</v>
+        <v>320.4121975405507</v>
       </c>
       <c r="X14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
       <c r="Y14" t="n">
-        <v>338.9030259679612</v>
+        <v>338.9030259679613</v>
       </c>
     </row>
     <row r="15">
@@ -28427,28 +28427,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J15" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L15" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M15" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O15" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R15" t="n">
         <v>230.2234336083486</v>
@@ -28509,25 +28509,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L16" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R16" t="n">
         <v>270.8995699845275</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6358297457435</v>
+        <v>335.2074165256906</v>
       </c>
       <c r="D17" t="n">
-        <v>322.8087989459105</v>
+        <v>322.8087989459104</v>
       </c>
       <c r="E17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="F17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="H17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="I17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="J17" t="n">
-        <v>281.0603937133725</v>
+        <v>282.7510933150265</v>
       </c>
       <c r="K17" t="n">
-        <v>342.0015977925061</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="M17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8520975329382</v>
+        <v>337.8520975329385</v>
       </c>
       <c r="O17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="P17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.0982837077138</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="R17" t="n">
-        <v>342.0015977925061</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6033593193816</v>
+        <v>296.5138328364537</v>
       </c>
       <c r="T17" t="n">
-        <v>225.5068713646012</v>
+        <v>241.6749070377143</v>
       </c>
       <c r="U17" t="n">
         <v>248.0272190304848</v>
       </c>
       <c r="V17" t="n">
-        <v>324.3962178336375</v>
+        <v>324.3962178336374</v>
       </c>
       <c r="W17" t="n">
         <v>333.180297311986</v>
       </c>
       <c r="X17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.0015977925061</v>
+        <v>342.0015977925062</v>
       </c>
     </row>
     <row r="18">
@@ -28664,28 +28664,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988972</v>
       </c>
       <c r="L18" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M18" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O18" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R18" t="n">
         <v>230.2234336083486</v>
@@ -28746,25 +28746,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L19" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R19" t="n">
         <v>270.8995699845275</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="C20" t="n">
-        <v>342.9553315183856</v>
+        <v>327.5450755323358</v>
       </c>
       <c r="D20" t="n">
-        <v>330.1226205667179</v>
+        <v>330.1226205667194</v>
       </c>
       <c r="E20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="F20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="G20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="H20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="I20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="J20" t="n">
-        <v>291.3753107196298</v>
+        <v>277.5779624600607</v>
       </c>
       <c r="K20" t="n">
-        <v>342.9553315183856</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9249271498746</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N20" t="n">
-        <v>337.8520975329382</v>
+        <v>342.5825559625901</v>
       </c>
       <c r="O20" t="n">
-        <v>342.9553315183856</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.9553315183856</v>
+        <v>340.0982837077141</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
       <c r="S20" t="n">
-        <v>283.4353236462686</v>
+        <v>301.0376837388878</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5068713646012</v>
+        <v>248.9887286585233</v>
       </c>
       <c r="U20" t="n">
-        <v>271.5090763244053</v>
+        <v>248.0272190304848</v>
       </c>
       <c r="V20" t="n">
-        <v>331.7100394544449</v>
+        <v>331.7100394544464</v>
       </c>
       <c r="W20" t="n">
-        <v>317.0122616388729</v>
+        <v>340.4941189327949</v>
       </c>
       <c r="X20" t="n">
-        <v>342.9553315183856</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.9553315183856</v>
+        <v>342.9553315183861</v>
       </c>
     </row>
     <row r="21">
@@ -28901,28 +28901,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J21" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L21" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M21" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O21" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R21" t="n">
         <v>230.2234336083486</v>
@@ -28983,25 +28983,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L22" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R22" t="n">
         <v>270.8995699845275</v>
@@ -29041,7 +29041,7 @@
         <v>343.8211471644534</v>
       </c>
       <c r="D23" t="n">
-        <v>321.1329987483957</v>
+        <v>337.8292273848417</v>
       </c>
       <c r="E23" t="n">
         <v>343.8211471644534</v>
@@ -29056,37 +29056,37 @@
         <v>343.8211471644534</v>
       </c>
       <c r="I23" t="n">
-        <v>334.2153299705516</v>
+        <v>343.8211471644534</v>
       </c>
       <c r="J23" t="n">
-        <v>277.5779624600606</v>
+        <v>277.5779624600607</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7344897004863</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L23" t="n">
         <v>343.8211471644534</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9249271498746</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8520975329382</v>
+        <v>337.8520975329385</v>
       </c>
       <c r="O23" t="n">
-        <v>340.9128417338089</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P23" t="n">
         <v>343.8211471644534</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.0982837077138</v>
+        <v>340.0982837077141</v>
       </c>
       <c r="R23" t="n">
-        <v>338.0245962279486</v>
+        <v>343.8211471644534</v>
       </c>
       <c r="S23" t="n">
-        <v>314.6237877583128</v>
+        <v>283.4353236462686</v>
       </c>
       <c r="T23" t="n">
         <v>256.6953354766455</v>
@@ -29095,13 +29095,13 @@
         <v>279.215683142529</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>336.4794428347898</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8211471644534</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8211471644534</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
         <v>343.8211471644534</v>
@@ -29138,28 +29138,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L24" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M24" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O24" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R24" t="n">
         <v>230.2234336083486</v>
@@ -29220,25 +29220,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K25" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L25" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R25" t="n">
         <v>270.8995699845275</v>
@@ -29275,10 +29275,10 @@
         <v>343.8211471644535</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8211471644535</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>307.9542297402538</v>
+        <v>329.3075828320769</v>
       </c>
       <c r="E26" t="n">
         <v>343.8211471644535</v>
@@ -29296,49 +29296,49 @@
         <v>343.8211471644535</v>
       </c>
       <c r="J26" t="n">
-        <v>308.7664265721047</v>
+        <v>277.5779624600607</v>
       </c>
       <c r="K26" t="n">
-        <v>343.8211471644535</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L26" t="n">
         <v>343.8211471644535</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8211471644535</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8211471644535</v>
+        <v>337.8520975329385</v>
       </c>
       <c r="O26" t="n">
-        <v>340.9128417338089</v>
+        <v>343.7188627292005</v>
       </c>
       <c r="P26" t="n">
         <v>343.8211471644535</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.0982837077138</v>
+        <v>340.0982837077141</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8211471644535</v>
+        <v>338.7915270467965</v>
       </c>
       <c r="S26" t="n">
         <v>314.6237877583127</v>
       </c>
       <c r="T26" t="n">
-        <v>256.6953354766454</v>
+        <v>225.5068713646012</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0272190304848</v>
+        <v>279.2156831425289</v>
       </c>
       <c r="V26" t="n">
-        <v>314.2140492572717</v>
+        <v>339.4166462725685</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="X26" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="Y26" t="n">
         <v>343.8211471644535</v>
@@ -29375,28 +29375,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J27" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L27" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M27" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O27" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R27" t="n">
         <v>230.2234336083486</v>
@@ -29457,25 +29457,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L28" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O28" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q28" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R28" t="n">
         <v>270.8995699845275</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="C29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2688250788884</v>
+        <v>326.0807075742784</v>
       </c>
       <c r="E29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="F29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="G29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="H29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="I29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="J29" t="n">
-        <v>316.0802481929152</v>
+        <v>277.5779624600607</v>
       </c>
       <c r="K29" t="n">
-        <v>332.7344897004863</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="M29" t="n">
-        <v>344.2688250788884</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="O29" t="n">
-        <v>340.9128417338089</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="Q29" t="n">
-        <v>344.2688250788884</v>
+        <v>340.0982837077141</v>
       </c>
       <c r="R29" t="n">
-        <v>344.2688250788884</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4353236462686</v>
+        <v>321.9376093791166</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5068713646012</v>
+        <v>264.0091570974493</v>
       </c>
       <c r="U29" t="n">
         <v>248.0272190304848</v>
       </c>
       <c r="V29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
       <c r="W29" t="n">
-        <v>319.7675759980593</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>344.2688250788884</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.2688250788884</v>
+        <v>344.2688250788882</v>
       </c>
     </row>
     <row r="30">
@@ -29612,28 +29612,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J30" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L30" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M30" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O30" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R30" t="n">
         <v>230.2234336083486</v>
@@ -29694,25 +29694,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L31" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q31" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R31" t="n">
         <v>270.8995699845275</v>
@@ -29749,10 +29749,10 @@
         <v>345.0566950801614</v>
       </c>
       <c r="C32" t="n">
-        <v>322.4677940726305</v>
+        <v>345.0566950801614</v>
       </c>
       <c r="D32" t="n">
-        <v>345.0566950801614</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
         <v>345.0566950801614</v>
@@ -29767,19 +29767,19 @@
         <v>345.0566950801614</v>
       </c>
       <c r="I32" t="n">
-        <v>345.0566950801614</v>
+        <v>334.2153299705517</v>
       </c>
       <c r="J32" t="n">
-        <v>328.9518696508776</v>
+        <v>277.5779624600607</v>
       </c>
       <c r="K32" t="n">
-        <v>345.0566950801614</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L32" t="n">
         <v>345.0566950801614</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9249271498746</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N32" t="n">
         <v>345.0566950801614</v>
@@ -29794,16 +29794,16 @@
         <v>345.0566950801614</v>
       </c>
       <c r="R32" t="n">
-        <v>345.0566950801614</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S32" t="n">
-        <v>307.7096095271514</v>
+        <v>334.8092308370856</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5068713646012</v>
+        <v>276.8807785554183</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272190304848</v>
+        <v>270.5383535810796</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -29812,7 +29812,7 @@
         <v>345.0566950801614</v>
       </c>
       <c r="X32" t="n">
-        <v>345.0566950801614</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
         <v>345.0566950801614</v>
@@ -29849,28 +29849,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J33" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L33" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M33" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O33" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R33" t="n">
         <v>230.2234336083486</v>
@@ -29931,25 +29931,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L34" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q34" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R34" t="n">
         <v>270.8995699845275</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="C35" t="n">
-        <v>322.4677940726305</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="D35" t="n">
-        <v>306.6407632727974</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="E35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="F35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="G35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="H35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="I35" t="n">
-        <v>345.0503585333973</v>
+        <v>334.2153299705517</v>
       </c>
       <c r="J35" t="n">
-        <v>328.8483479643469</v>
+        <v>328.8483479643486</v>
       </c>
       <c r="K35" t="n">
-        <v>332.7344897004863</v>
+        <v>332.7344897004866</v>
       </c>
       <c r="L35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9249271498746</v>
+        <v>339.924927149875</v>
       </c>
       <c r="N35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="O35" t="n">
-        <v>340.9128417338089</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0982837077138</v>
+        <v>340.0982837077141</v>
       </c>
       <c r="R35" t="n">
-        <v>338.0245962279486</v>
+        <v>345.0503585333975</v>
       </c>
       <c r="S35" t="n">
-        <v>290.0276794878629</v>
+        <v>283.4353236462686</v>
       </c>
       <c r="T35" t="n">
-        <v>276.7772568688875</v>
+        <v>225.5068713646012</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0272190304848</v>
+        <v>299.2976045347726</v>
       </c>
       <c r="V35" t="n">
-        <v>345.0503585333973</v>
+        <v>322.4979178055433</v>
       </c>
       <c r="W35" t="n">
-        <v>345.0503585333973</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>345.0503585333973</v>
+        <v>345.0503585333975</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J36" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L36" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M36" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O36" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R36" t="n">
         <v>230.2234336083486</v>
@@ -30168,25 +30168,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L37" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M37" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R37" t="n">
         <v>270.8995699845275</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="D38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="E38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="F38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="G38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="H38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="I38" t="n">
-        <v>334.2153299705516</v>
+        <v>334.2153299705517</v>
       </c>
       <c r="J38" t="n">
-        <v>321.4560248712977</v>
+        <v>328.8483479643492</v>
       </c>
       <c r="K38" t="n">
-        <v>332.7344897004863</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="L38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9249271498746</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="N38" t="n">
-        <v>345.0503585333972</v>
+        <v>337.8520975329385</v>
       </c>
       <c r="O38" t="n">
-        <v>340.9128417338089</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="Q38" t="n">
-        <v>340.0982837077138</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="R38" t="n">
-        <v>338.0245962279486</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S38" t="n">
-        <v>334.7057091505552</v>
+        <v>283.4353236462686</v>
       </c>
       <c r="T38" t="n">
-        <v>276.7772568688879</v>
+        <v>225.5068713646012</v>
       </c>
       <c r="U38" t="n">
         <v>248.0272190304848</v>
       </c>
       <c r="V38" t="n">
-        <v>308.2281821605244</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="W38" t="n">
-        <v>317.0122616388729</v>
+        <v>333.9791355066624</v>
       </c>
       <c r="X38" t="n">
-        <v>341.4686393609607</v>
+        <v>345.0503585333974</v>
       </c>
       <c r="Y38" t="n">
-        <v>345.0503585333972</v>
+        <v>345.0503585333974</v>
       </c>
     </row>
     <row r="39">
@@ -30323,28 +30323,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L39" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M39" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O39" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R39" t="n">
         <v>230.2234336083486</v>
@@ -30405,25 +30405,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L40" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R40" t="n">
         <v>270.8995699845275</v>
@@ -30463,7 +30463,7 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>329.7143611536392</v>
+        <v>344.2688250788883</v>
       </c>
       <c r="E41" t="n">
         <v>344.2688250788883</v>
@@ -30481,7 +30481,7 @@
         <v>344.2688250788883</v>
       </c>
       <c r="J41" t="n">
-        <v>316.0802481929123</v>
+        <v>316.0802481929138</v>
       </c>
       <c r="K41" t="n">
         <v>344.2688250788883</v>
@@ -30490,34 +30490,34 @@
         <v>344.2688250788883</v>
       </c>
       <c r="M41" t="n">
+        <v>339.924927149875</v>
+      </c>
+      <c r="N41" t="n">
         <v>344.2688250788883</v>
       </c>
-      <c r="N41" t="n">
-        <v>337.8520975329382</v>
-      </c>
       <c r="O41" t="n">
-        <v>340.9128417338089</v>
+        <v>340.9128417338092</v>
       </c>
       <c r="P41" t="n">
         <v>344.2688250788883</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.0982837077138</v>
+        <v>344.2688250788883</v>
       </c>
       <c r="R41" t="n">
-        <v>344.2688250788883</v>
+        <v>338.0245962279487</v>
       </c>
       <c r="S41" t="n">
-        <v>321.9376093791203</v>
+        <v>309.8456461311906</v>
       </c>
       <c r="T41" t="n">
-        <v>264.0091570974529</v>
+        <v>225.5068713646012</v>
       </c>
       <c r="U41" t="n">
         <v>248.0272190304848</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>344.2688250788883</v>
       </c>
       <c r="W41" t="n">
         <v>317.0122616388729</v>
@@ -30560,28 +30560,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J42" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K42" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988973</v>
       </c>
       <c r="L42" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996452</v>
       </c>
       <c r="M42" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943754</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349596</v>
       </c>
       <c r="O42" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R42" t="n">
         <v>230.2234336083486</v>
@@ -30642,25 +30642,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K43" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L43" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O43" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q43" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R43" t="n">
         <v>270.8995699845275</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="D44" t="n">
-        <v>337.8292273848417</v>
+        <v>307.9542297402543</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8211471644533</v>
+        <v>334.2153299705517</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7664265721049</v>
+        <v>308.7664265721048</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8211471644533</v>
+        <v>332.7344897004865</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="M44" t="n">
-        <v>343.8211471644533</v>
+        <v>339.9249271498749</v>
       </c>
       <c r="N44" t="n">
-        <v>343.8211471644533</v>
+        <v>337.8520975329384</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.0982837077138</v>
+        <v>340.098283707714</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0245962279486</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="S44" t="n">
-        <v>285.8148624790848</v>
+        <v>283.4353236462686</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5068713646012</v>
+        <v>232.3332918090859</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2156831425291</v>
+        <v>279.2156831425289</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4166462725685</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
       <c r="X44" t="n">
-        <v>343.8211471644533</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8211471644533</v>
+        <v>343.8211471644535</v>
       </c>
     </row>
     <row r="45">
@@ -30797,28 +30797,28 @@
         <v>158.1161945263649</v>
       </c>
       <c r="J45" t="n">
-        <v>196.2114129479736</v>
+        <v>196.2114129479737</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0721222988971</v>
+        <v>207.0721222988972</v>
       </c>
       <c r="L45" t="n">
-        <v>202.399548599645</v>
+        <v>202.3995485996451</v>
       </c>
       <c r="M45" t="n">
-        <v>204.4180894943751</v>
+        <v>204.4180894943753</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1778745349594</v>
+        <v>186.1778745349595</v>
       </c>
       <c r="O45" t="n">
-        <v>206.788268457791</v>
+        <v>206.7882684577912</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6993845417737</v>
+        <v>197.6993845417739</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0948778930108</v>
+        <v>214.094877893011</v>
       </c>
       <c r="R45" t="n">
         <v>230.2234336083486</v>
@@ -30879,25 +30879,25 @@
         <v>200.1567871379812</v>
       </c>
       <c r="K46" t="n">
-        <v>199.4403371053302</v>
+        <v>199.4403371053303</v>
       </c>
       <c r="L46" t="n">
-        <v>206.127167331351</v>
+        <v>206.1271673313511</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9840049732368</v>
+        <v>211.9840049732369</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0460450039705</v>
+        <v>194.0460450039706</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5751212288464</v>
+        <v>212.5751212288465</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1833286816261</v>
+        <v>213.1833286816262</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.8396513910337</v>
+        <v>238.8396513910338</v>
       </c>
       <c r="R46" t="n">
         <v>270.8995699845275</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H11" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I11" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J11" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580453</v>
       </c>
       <c r="K11" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760684</v>
       </c>
       <c r="L11" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M11" t="n">
-        <v>34.38770184444353</v>
+        <v>34.38770184444321</v>
       </c>
       <c r="N11" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O11" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643174</v>
       </c>
       <c r="P11" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.14846233826658</v>
+        <v>21.14846233826638</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001598</v>
       </c>
       <c r="S11" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I12" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J12" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K12" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L12" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265039</v>
       </c>
       <c r="M12" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N12" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O12" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P12" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R12" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S12" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I13" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J13" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K13" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L13" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M13" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N13" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O13" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P13" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R13" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S13" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H14" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I14" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J14" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580453</v>
       </c>
       <c r="K14" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760684</v>
       </c>
       <c r="L14" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M14" t="n">
-        <v>34.38770184444353</v>
+        <v>34.38770184444321</v>
       </c>
       <c r="N14" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O14" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643174</v>
       </c>
       <c r="P14" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.14846233826658</v>
+        <v>21.14846233826638</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001596</v>
       </c>
       <c r="S14" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I15" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J15" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K15" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L15" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M15" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N15" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O15" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P15" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R15" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S15" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I16" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J16" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K16" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L16" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M16" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N16" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O16" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P16" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R16" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S16" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721545</v>
       </c>
       <c r="H17" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052453</v>
       </c>
       <c r="I17" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900745</v>
       </c>
       <c r="J17" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580454</v>
       </c>
       <c r="K17" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760686</v>
       </c>
       <c r="L17" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328355</v>
       </c>
       <c r="M17" t="n">
-        <v>34.38770184444353</v>
+        <v>34.38770184444323</v>
       </c>
       <c r="N17" t="n">
-        <v>34.94413081152203</v>
+        <v>34.94413081152175</v>
       </c>
       <c r="O17" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643175</v>
       </c>
       <c r="P17" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702543</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826639</v>
       </c>
       <c r="R17" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001602</v>
       </c>
       <c r="S17" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629226</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.857287392304857</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377236</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966628</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011986737317778</v>
+        <v>1.01198673731777</v>
       </c>
       <c r="I18" t="n">
-        <v>3.607672973635132</v>
+        <v>3.6076729736351</v>
       </c>
       <c r="J18" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359707</v>
       </c>
       <c r="K18" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443612</v>
       </c>
       <c r="L18" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265041</v>
       </c>
       <c r="M18" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N18" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045705</v>
       </c>
       <c r="O18" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443099</v>
       </c>
       <c r="P18" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651275</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R18" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092801</v>
       </c>
       <c r="S18" t="n">
-        <v>1.946305101063028</v>
+        <v>1.946305101063011</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115485</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780448</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.0878468557431038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341416</v>
       </c>
       <c r="I19" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528977</v>
       </c>
       <c r="J19" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037438</v>
       </c>
       <c r="K19" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L19" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566109</v>
       </c>
       <c r="M19" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162126</v>
       </c>
       <c r="N19" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203334</v>
       </c>
       <c r="O19" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539799</v>
       </c>
       <c r="P19" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.355976256815786</v>
+        <v>7.35597625681572</v>
       </c>
       <c r="R19" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321739</v>
       </c>
       <c r="S19" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268454</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.375345656356898</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896576</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H20" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I20" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J20" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580451</v>
       </c>
       <c r="K20" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L20" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M20" t="n">
-        <v>34.38770184444354</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N20" t="n">
-        <v>34.94413081152203</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O20" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P20" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.14846233826658</v>
+        <v>21.14846233826637</v>
       </c>
       <c r="R20" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001598</v>
       </c>
       <c r="S20" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H21" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I21" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J21" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K21" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L21" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M21" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N21" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O21" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P21" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R21" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S21" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I22" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J22" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K22" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L22" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M22" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N22" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O22" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P22" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R22" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S22" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H23" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I23" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J23" t="n">
-        <v>16.62163239580468</v>
+        <v>16.62163239580451</v>
       </c>
       <c r="K23" t="n">
-        <v>24.91151824760709</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L23" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M23" t="n">
-        <v>34.38770184444354</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N23" t="n">
-        <v>34.94413081152203</v>
+        <v>34.94413081152175</v>
       </c>
       <c r="O23" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P23" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826637</v>
       </c>
       <c r="R23" t="n">
-        <v>12.30190272001607</v>
+        <v>12.30190272001598</v>
       </c>
       <c r="S23" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I24" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J24" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K24" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L24" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M24" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N24" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O24" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P24" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R24" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S24" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I25" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J25" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K25" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L25" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M25" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N25" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O25" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P25" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R25" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S25" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H26" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I26" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J26" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580451</v>
       </c>
       <c r="K26" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L26" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M26" t="n">
-        <v>34.38770184444353</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N26" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152175</v>
       </c>
       <c r="O26" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643174</v>
       </c>
       <c r="P26" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826637</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001598</v>
       </c>
       <c r="S26" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H27" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I27" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J27" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K27" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L27" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M27" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N27" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O27" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P27" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R27" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S27" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I28" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J28" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K28" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L28" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M28" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N28" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O28" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P28" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R28" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S28" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H29" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I29" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J29" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580451</v>
       </c>
       <c r="K29" t="n">
-        <v>24.91151824760709</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L29" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M29" t="n">
-        <v>34.38770184444353</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N29" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O29" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P29" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.14846233826658</v>
+        <v>21.14846233826637</v>
       </c>
       <c r="R29" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001596</v>
       </c>
       <c r="S29" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H30" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I30" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J30" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K30" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L30" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M30" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N30" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O30" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P30" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R30" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S30" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I31" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J31" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K31" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L31" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M31" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N31" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O31" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P31" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R31" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S31" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H32" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I32" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J32" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580451</v>
       </c>
       <c r="K32" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L32" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M32" t="n">
-        <v>34.38770184444354</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N32" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O32" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643174</v>
       </c>
       <c r="P32" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.14846233826658</v>
+        <v>21.14846233826638</v>
       </c>
       <c r="R32" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001596</v>
       </c>
       <c r="S32" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H33" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I33" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J33" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K33" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L33" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M33" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N33" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O33" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P33" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R33" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S33" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I34" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J34" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K34" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L34" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M34" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N34" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O34" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P34" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R34" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S34" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H35" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I35" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J35" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580453</v>
       </c>
       <c r="K35" t="n">
-        <v>24.91151824760709</v>
+        <v>24.91151824760681</v>
       </c>
       <c r="L35" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M35" t="n">
-        <v>34.38770184444354</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N35" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O35" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P35" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826637</v>
       </c>
       <c r="R35" t="n">
-        <v>12.30190272001607</v>
+        <v>12.30190272001598</v>
       </c>
       <c r="S35" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H36" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I36" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J36" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K36" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L36" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M36" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N36" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O36" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P36" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R36" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S36" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I37" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J37" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K37" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L37" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M37" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N37" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O37" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P37" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R37" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S37" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H38" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I38" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J38" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580453</v>
       </c>
       <c r="K38" t="n">
-        <v>24.91151824760709</v>
+        <v>24.91151824760684</v>
       </c>
       <c r="L38" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M38" t="n">
-        <v>34.38770184444354</v>
+        <v>34.38770184444321</v>
       </c>
       <c r="N38" t="n">
-        <v>34.94413081152205</v>
+        <v>34.94413081152175</v>
       </c>
       <c r="O38" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P38" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826638</v>
       </c>
       <c r="R38" t="n">
-        <v>12.30190272001607</v>
+        <v>12.30190272001596</v>
       </c>
       <c r="S38" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H39" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I39" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J39" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K39" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L39" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M39" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N39" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O39" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P39" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R39" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S39" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I40" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J40" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K40" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L40" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M40" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N40" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O40" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P40" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R40" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S40" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.1958394956721544</v>
       </c>
       <c r="H41" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052452</v>
       </c>
       <c r="I41" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900742</v>
       </c>
       <c r="J41" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580453</v>
       </c>
       <c r="K41" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760684</v>
       </c>
       <c r="L41" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328354</v>
       </c>
       <c r="M41" t="n">
-        <v>34.38770184444353</v>
+        <v>34.3877018444432</v>
       </c>
       <c r="N41" t="n">
-        <v>34.94413081152203</v>
+        <v>34.94413081152172</v>
       </c>
       <c r="O41" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643176</v>
       </c>
       <c r="P41" t="n">
-        <v>28.16196427702569</v>
+        <v>28.16196427702542</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826638</v>
       </c>
       <c r="R41" t="n">
-        <v>12.3019027200161</v>
+        <v>12.30190272001596</v>
       </c>
       <c r="S41" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629224</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.8572873923048565</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.01566715965377235</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.1047833678966627</v>
       </c>
       <c r="H42" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317769</v>
       </c>
       <c r="I42" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635098</v>
       </c>
       <c r="J42" t="n">
-        <v>9.899730385359794</v>
+        <v>9.899730385359701</v>
       </c>
       <c r="K42" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443609</v>
       </c>
       <c r="L42" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265038</v>
       </c>
       <c r="M42" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890441</v>
       </c>
       <c r="N42" t="n">
-        <v>27.25240760045727</v>
+        <v>27.25240760045702</v>
       </c>
       <c r="O42" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443096</v>
       </c>
       <c r="P42" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651272</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.37550499677414</v>
+        <v>13.375504996774</v>
       </c>
       <c r="R42" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092798</v>
       </c>
       <c r="S42" t="n">
-        <v>1.946305101063028</v>
+        <v>1.94630510106301</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115482</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780445</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310376</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341413</v>
       </c>
       <c r="I43" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528976</v>
       </c>
       <c r="J43" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037436</v>
       </c>
       <c r="K43" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178969</v>
       </c>
       <c r="L43" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566108</v>
       </c>
       <c r="M43" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162125</v>
       </c>
       <c r="N43" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203333</v>
       </c>
       <c r="O43" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539798</v>
       </c>
       <c r="P43" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823866</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815716</v>
       </c>
       <c r="R43" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321737</v>
       </c>
       <c r="S43" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268453</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568978</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896574</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1958394956721563</v>
+        <v>0.195839495672155</v>
       </c>
       <c r="H44" t="n">
-        <v>2.005641235052471</v>
+        <v>2.005641235052458</v>
       </c>
       <c r="I44" t="n">
-        <v>7.550102156900812</v>
+        <v>7.550102156900762</v>
       </c>
       <c r="J44" t="n">
-        <v>16.62163239580469</v>
+        <v>16.62163239580458</v>
       </c>
       <c r="K44" t="n">
-        <v>24.91151824760707</v>
+        <v>24.91151824760692</v>
       </c>
       <c r="L44" t="n">
-        <v>30.90494121328383</v>
+        <v>30.90494121328362</v>
       </c>
       <c r="M44" t="n">
-        <v>34.38770184444353</v>
+        <v>34.38770184444331</v>
       </c>
       <c r="N44" t="n">
-        <v>34.94413081152205</v>
+        <v>34.9441308115218</v>
       </c>
       <c r="O44" t="n">
-        <v>32.99675182643205</v>
+        <v>32.99675182643183</v>
       </c>
       <c r="P44" t="n">
-        <v>28.16196427702569</v>
+        <v>28.1619642770255</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.1484623382666</v>
+        <v>21.14846233826643</v>
       </c>
       <c r="R44" t="n">
-        <v>12.30190272001607</v>
+        <v>12.30190272001602</v>
       </c>
       <c r="S44" t="n">
-        <v>4.462692507629265</v>
+        <v>4.462692507629236</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8572873923048645</v>
+        <v>0.857287392304859</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0156671596537725</v>
+        <v>0.0156671596537724</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1047833678966637</v>
+        <v>0.104783367896663</v>
       </c>
       <c r="H45" t="n">
-        <v>1.011986737317778</v>
+        <v>1.011986737317772</v>
       </c>
       <c r="I45" t="n">
-        <v>3.607672973635132</v>
+        <v>3.607672973635109</v>
       </c>
       <c r="J45" t="n">
-        <v>9.899730385359794</v>
+        <v>9.89973038535973</v>
       </c>
       <c r="K45" t="n">
-        <v>16.92021603443627</v>
+        <v>16.92021603443615</v>
       </c>
       <c r="L45" t="n">
-        <v>22.75131854265061</v>
+        <v>22.75131854265044</v>
       </c>
       <c r="M45" t="n">
-        <v>26.54971562890466</v>
+        <v>26.54971562890449</v>
       </c>
       <c r="N45" t="n">
-        <v>27.25240760045727</v>
+        <v>27.2524076004571</v>
       </c>
       <c r="O45" t="n">
-        <v>24.93062876443122</v>
+        <v>24.93062876443105</v>
       </c>
       <c r="P45" t="n">
-        <v>20.00902750651292</v>
+        <v>20.00902750651278</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.37550499677414</v>
+        <v>13.37550499677403</v>
       </c>
       <c r="R45" t="n">
-        <v>6.50576033309286</v>
+        <v>6.505760333092816</v>
       </c>
       <c r="S45" t="n">
-        <v>1.946305101063028</v>
+        <v>1.946305101063016</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4223505048115522</v>
+        <v>0.4223505048115495</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00689364262478051</v>
+        <v>0.006893642624780464</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08784685574310458</v>
+        <v>0.08784685574310401</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7810384083341486</v>
+        <v>0.7810384083341435</v>
       </c>
       <c r="I46" t="n">
-        <v>2.641794534529001</v>
+        <v>2.641794534528983</v>
       </c>
       <c r="J46" t="n">
-        <v>6.210772701037493</v>
+        <v>6.210772701037453</v>
       </c>
       <c r="K46" t="n">
-        <v>10.20620742178978</v>
+        <v>10.20620742178972</v>
       </c>
       <c r="L46" t="n">
-        <v>13.06043162566121</v>
+        <v>13.06043162566112</v>
       </c>
       <c r="M46" t="n">
-        <v>13.77039394162138</v>
+        <v>13.77039394162129</v>
       </c>
       <c r="N46" t="n">
-        <v>13.44296475203346</v>
+        <v>13.44296475203337</v>
       </c>
       <c r="O46" t="n">
-        <v>12.4167537553981</v>
+        <v>12.41675375539801</v>
       </c>
       <c r="P46" t="n">
-        <v>10.62467789823875</v>
+        <v>10.62467789823868</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.355976256815786</v>
+        <v>7.355976256815737</v>
       </c>
       <c r="R46" t="n">
-        <v>3.949914077321774</v>
+        <v>3.949914077321748</v>
       </c>
       <c r="S46" t="n">
-        <v>1.530931113268468</v>
+        <v>1.530931113268458</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3753456563569013</v>
+        <v>0.3753456563568988</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00479164667689662</v>
+        <v>0.004791646676896587</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="D11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="J11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="K11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.050928435023025</v>
+        <v>1.050928435022797</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,22 +35431,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8784297400126206</v>
+        <v>0.8784297400125638</v>
       </c>
       <c r="S11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.384135014123429</v>
+        <v>2.384135014123173</v>
       </c>
       <c r="V11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="W11" t="n">
-        <v>3.399935901678558</v>
+        <v>3.399935901678318</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="D14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="J14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901678701</v>
       </c>
       <c r="K14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8784297400126455</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38413501412299</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.262564754135143</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="V14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="W14" t="n">
-        <v>3.399935901678164</v>
+        <v>3.399935901677726</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.16803567311308</v>
+        <v>12.73962245306012</v>
       </c>
       <c r="D17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,52 +35878,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.78626782195446</v>
+        <v>7.786267821954425</v>
       </c>
       <c r="J17" t="n">
-        <v>3.482431253311915</v>
+        <v>5.173130854965848</v>
       </c>
       <c r="K17" t="n">
-        <v>9.267108092019782</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.076670642631484</v>
+        <v>2.0766706426312</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.088756058697243</v>
+        <v>1.088756058697015</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.9033140847921</v>
       </c>
       <c r="R17" t="n">
-        <v>3.977001564557522</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.16803567311308</v>
+        <v>13.0785091901851</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="W17" t="n">
-        <v>16.16803567311308</v>
+        <v>16.16803567311302</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5329584315454099</v>
+        <v>0.5329584315454667</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.48753744575515</v>
+        <v>5.077281459705318</v>
       </c>
       <c r="D20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.74000154783397</v>
+        <v>8.740001547834311</v>
       </c>
       <c r="J20" t="n">
-        <v>13.79734825956923</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>10.22084181789927</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,37 +36130,37 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.73045842965161</v>
       </c>
       <c r="O20" t="n">
-        <v>2.04248978457673</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.857047810671759</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.93073529043701</v>
+        <v>4.930735290437326</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>17.6023600926192</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="U20" t="n">
-        <v>23.4818572939205</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4818572939205</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>23.48185729392203</v>
       </c>
       <c r="X20" t="n">
-        <v>1.486692157424898</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>21.3533530918229</v>
       </c>
       <c r="D23" t="n">
-        <v>14.49223547559825</v>
+        <v>31.18846411204424</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.605817193901601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36379,10 +36379,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.796550936504616</v>
       </c>
       <c r="S23" t="n">
-        <v>31.18846411204424</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>31.18846411204424</v>
@@ -36391,13 +36391,13 @@
         <v>31.18846411204424</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>28.25126067426538</v>
       </c>
       <c r="W23" t="n">
-        <v>26.80888552558042</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.352507803492642</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.35335309182301</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.313466467456408</v>
+        <v>22.66681955927953</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,25 +36589,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.605817193901828</v>
+        <v>9.605817193901714</v>
       </c>
       <c r="J26" t="n">
-        <v>31.18846411204413</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.08665746396713</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.89622001457883</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>5.969049631515247</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.806020995391271</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,25 +36616,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.796550936504868</v>
+        <v>0.7669308188477348</v>
       </c>
       <c r="S26" t="n">
         <v>31.18846411204413</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>31.18846411204413</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>5.985867096747256</v>
+        <v>31.18846411204413</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>26.80888552558054</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2.352507803492756</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.80103100625797</v>
+        <v>21.80103100625774</v>
       </c>
       <c r="D29" t="n">
-        <v>37.62806180609101</v>
+        <v>19.43994430148103</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10.05349510833679</v>
+        <v>10.05349510833645</v>
       </c>
       <c r="J29" t="n">
-        <v>38.50228573285467</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.343897929013792</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.416727545950209</v>
+        <v>6.416727545949698</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36850,28 +36850,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.170541371174579</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.24422885093983</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.50228573284807</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>38.50228573284807</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>36.04064291836403</v>
+        <v>36.0406429183638</v>
       </c>
       <c r="W29" t="n">
-        <v>2.7553143591864</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.800185717927718</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>22.58890100753098</v>
       </c>
       <c r="D32" t="n">
-        <v>38.41593180736402</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,43 +37063,43 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.8413651096098</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.204597547222932</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.143853346352273</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.958411372447358</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>51.37390719081702</v>
       </c>
-      <c r="K32" t="n">
-        <v>12.3222053796751</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.204597547223237</v>
-      </c>
-      <c r="O32" t="n">
-        <v>4.143853346352557</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4.958411372447586</v>
-      </c>
-      <c r="R32" t="n">
-        <v>7.032098852212812</v>
-      </c>
-      <c r="S32" t="n">
-        <v>24.27428588088284</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>51.37390719081702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>22.51113455059486</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -37108,7 +37108,7 @@
         <v>28.0444334412885</v>
       </c>
       <c r="X32" t="n">
-        <v>3.588055719200725</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>22.582564460767</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>38.40959526060004</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.83502856284565</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.27038550428628</v>
+        <v>51.27038550428789</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>7.19826100045907</v>
+        <v>7.198261000458956</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37327,22 +37327,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.025762305448723</v>
       </c>
       <c r="S35" t="n">
-        <v>6.592355841594326</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>51.27038550428628</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>51.27038550428789</v>
       </c>
       <c r="V35" t="n">
-        <v>36.82217637287289</v>
+        <v>14.2697356450189</v>
       </c>
       <c r="W35" t="n">
-        <v>28.03809689452436</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>22.58256446076695</v>
       </c>
       <c r="D38" t="n">
-        <v>38.40959526059981</v>
+        <v>38.40959526059999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.8780624112371</v>
+        <v>51.27038550428848</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>12.31586883291078</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.125431383522425</v>
       </c>
       <c r="N38" t="n">
-        <v>7.198261000459013</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37561,28 +37561,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.952074825683326</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.27038550428668</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>51.27038550428668</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>36.822176372873</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.96687386778945</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3.581719172436692</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37759,7 +37759,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>23.07359788084182</v>
+        <v>37.6280618060909</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,22 +37774,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.05349510833668</v>
+        <v>10.05349510833656</v>
       </c>
       <c r="J41" t="n">
-        <v>38.5022857328517</v>
+        <v>38.50228573285305</v>
       </c>
       <c r="K41" t="n">
-        <v>11.53433537840198</v>
+        <v>11.53433537840169</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.343897929013679</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.41672754594979</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37798,22 +37798,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.170541371174238</v>
       </c>
       <c r="R41" t="n">
-        <v>6.244228850939717</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.5022857328517</v>
+        <v>26.41032248492204</v>
       </c>
       <c r="T41" t="n">
-        <v>38.5022857328517</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>36.04064291836391</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.35335309182307</v>
       </c>
       <c r="D44" t="n">
-        <v>31.1884641120443</v>
+        <v>1.313466467456919</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,22 +38011,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.605817193901657</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
       <c r="K44" t="n">
-        <v>11.08665746396694</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.89622001457866</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>5.969049631515077</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>2.908305430644418</v>
@@ -38038,25 +38038,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.796550936504843</v>
       </c>
       <c r="S44" t="n">
-        <v>2.379538832816218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.826420444484683</v>
       </c>
       <c r="U44" t="n">
-        <v>31.1884641120443</v>
+        <v>31.18846411204407</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>31.18846411204407</v>
       </c>
       <c r="W44" t="n">
-        <v>26.80888552558037</v>
+        <v>26.80888552558059</v>
       </c>
       <c r="X44" t="n">
-        <v>2.352507803492585</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
